--- a/teaching/traditional_assets/database/data/belgium/belgium_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_software_entertainment.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.0766990291262136</v>
+        <v>-0.1136170212765958</v>
       </c>
       <c r="H2">
-        <v>-0.1132686084142395</v>
+        <v>-0.1782978723404255</v>
       </c>
       <c r="I2">
-        <v>-0.1151857148998321</v>
+        <v>-0.2182978723404255</v>
       </c>
       <c r="J2">
-        <v>-0.1151857148998321</v>
+        <v>-0.2088304735758408</v>
       </c>
       <c r="K2">
-        <v>-5.64</v>
+        <v>5.65</v>
       </c>
       <c r="L2">
-        <v>-0.1825242718446602</v>
+        <v>0.2404255319148936</v>
       </c>
       <c r="M2">
-        <v>0.145</v>
+        <v>0.008</v>
       </c>
       <c r="N2">
-        <v>0.003460620525059666</v>
+        <v>0.0001724137931034483</v>
       </c>
       <c r="O2">
-        <v>-0.02570921985815603</v>
+        <v>0.001415929203539823</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,82 +624,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.145</v>
+        <v>0.008</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0.709</v>
+        <v>0.833</v>
       </c>
       <c r="V2">
-        <v>0.01692124105011933</v>
+        <v>0.01795258620689655</v>
       </c>
       <c r="W2">
-        <v>-2.587155963302752</v>
+        <v>0.8814352574102965</v>
       </c>
       <c r="X2">
-        <v>0.1247097604166149</v>
+        <v>0.08815409990444158</v>
       </c>
       <c r="Y2">
-        <v>-2.711865723719367</v>
+        <v>0.7932811575058549</v>
       </c>
       <c r="Z2">
-        <v>1.391817100404187</v>
+        <v>1.140721324207563</v>
       </c>
       <c r="AA2">
-        <v>-0.1603174477198678</v>
+        <v>-0.2382173743523255</v>
       </c>
       <c r="AB2">
-        <v>0.08069916941834665</v>
+        <v>0.06640739664943104</v>
       </c>
       <c r="AC2">
-        <v>-0.2410166171382144</v>
+        <v>-0.3046247710017566</v>
       </c>
       <c r="AD2">
-        <v>30.6</v>
+        <v>20.6</v>
       </c>
       <c r="AE2">
-        <v>1.701192952024064</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>32.30119295202407</v>
+        <v>20.6</v>
       </c>
       <c r="AG2">
-        <v>31.59219295202407</v>
+        <v>19.767</v>
       </c>
       <c r="AH2">
-        <v>0.4353190517153667</v>
+        <v>0.3074626865671642</v>
       </c>
       <c r="AI2">
-        <v>0.8214703198713954</v>
+        <v>0.5309278350515465</v>
       </c>
       <c r="AJ2">
-        <v>0.4298714146773052</v>
+        <v>0.298744086931552</v>
       </c>
       <c r="AK2">
-        <v>0.8181921444160812</v>
+        <v>0.520636342086549</v>
       </c>
       <c r="AL2">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="AM2">
-        <v>1.3</v>
+        <v>2.034</v>
       </c>
       <c r="AN2">
-        <v>-8.846487424111016</v>
+        <v>-3.570190641247834</v>
       </c>
       <c r="AO2">
-        <v>-3.161538461538462</v>
+        <v>-2.478260869565218</v>
       </c>
       <c r="AP2">
-        <v>-9.133331295757175</v>
+        <v>-3.425823223570192</v>
       </c>
       <c r="AQ2">
-        <v>-3.161538461538462</v>
+        <v>-2.52212389380531</v>
       </c>
     </row>
     <row r="3">
@@ -719,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.0766990291262136</v>
+        <v>-0.1136170212765958</v>
       </c>
       <c r="H3">
-        <v>-0.1132686084142395</v>
+        <v>-0.1782978723404255</v>
       </c>
       <c r="I3">
-        <v>-0.1151857148998321</v>
+        <v>-0.2182978723404255</v>
       </c>
       <c r="J3">
-        <v>-0.1151857148998321</v>
+        <v>-0.2088304735758408</v>
       </c>
       <c r="K3">
-        <v>-5.64</v>
+        <v>5.65</v>
       </c>
       <c r="L3">
-        <v>-0.1825242718446602</v>
+        <v>0.2404255319148936</v>
       </c>
       <c r="M3">
-        <v>0.145</v>
+        <v>0.008</v>
       </c>
       <c r="N3">
-        <v>0.003460620525059666</v>
+        <v>0.0001724137931034483</v>
       </c>
       <c r="O3">
-        <v>-0.02570921985815603</v>
+        <v>0.001415929203539823</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,82 +752,82 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.145</v>
+        <v>0.008</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0.709</v>
+        <v>0.833</v>
       </c>
       <c r="V3">
-        <v>0.01692124105011933</v>
+        <v>0.01795258620689655</v>
       </c>
       <c r="W3">
-        <v>-2.587155963302752</v>
+        <v>0.8814352574102965</v>
       </c>
       <c r="X3">
-        <v>0.1247097604166149</v>
+        <v>0.08815409990444158</v>
       </c>
       <c r="Y3">
-        <v>-2.711865723719367</v>
+        <v>0.7932811575058549</v>
       </c>
       <c r="Z3">
-        <v>1.391817100404187</v>
+        <v>1.140721324207563</v>
       </c>
       <c r="AA3">
-        <v>-0.1603174477198678</v>
+        <v>-0.2382173743523255</v>
       </c>
       <c r="AB3">
-        <v>0.08069916941834665</v>
+        <v>0.06640739664943104</v>
       </c>
       <c r="AC3">
-        <v>-0.2410166171382144</v>
+        <v>-0.3046247710017566</v>
       </c>
       <c r="AD3">
-        <v>30.6</v>
+        <v>20.6</v>
       </c>
       <c r="AE3">
-        <v>1.701192952024064</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>32.30119295202407</v>
+        <v>20.6</v>
       </c>
       <c r="AG3">
-        <v>31.59219295202407</v>
+        <v>19.767</v>
       </c>
       <c r="AH3">
-        <v>0.4353190517153667</v>
+        <v>0.3074626865671642</v>
       </c>
       <c r="AI3">
-        <v>0.8214703198713954</v>
+        <v>0.5309278350515465</v>
       </c>
       <c r="AJ3">
-        <v>0.4298714146773052</v>
+        <v>0.298744086931552</v>
       </c>
       <c r="AK3">
-        <v>0.8181921444160812</v>
+        <v>0.520636342086549</v>
       </c>
       <c r="AL3">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="AM3">
-        <v>1.3</v>
+        <v>2.034</v>
       </c>
       <c r="AN3">
-        <v>-8.846487424111016</v>
+        <v>-3.570190641247834</v>
       </c>
       <c r="AO3">
-        <v>-3.161538461538462</v>
+        <v>-2.478260869565218</v>
       </c>
       <c r="AP3">
-        <v>-9.133331295757175</v>
+        <v>-3.425823223570192</v>
       </c>
       <c r="AQ3">
-        <v>-3.161538461538462</v>
+        <v>-2.52212389380531</v>
       </c>
     </row>
   </sheetData>
